--- a/项目管理/进度计划/每日站会问题记录.xlsx
+++ b/项目管理/进度计划/每日站会问题记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2700" yWindow="140" windowWidth="19300" windowHeight="18380" tabRatio="500"/>
+    <workbookView xWindow="11140" yWindow="140" windowWidth="19300" windowHeight="18380" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="2015年03月" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>2015年03月19日</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -34,6 +34,70 @@
   </si>
   <si>
     <t>美术明天出一版样式跟大家确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015年03月20日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结算文档基本完成，周一需要和程序再确认一下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景，UI美术风格第一版已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据结构需要周一再跟zz确认道具等部分相关内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周一上午开会讲解核心战斗内容，文档xw提前发给zz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015年03月23日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外出未开站会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3内容均按时完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015年03月24日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结算文档已反馈修改完成，明天提交程序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Demo进展：整理数据结构，先做资源加载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美术UI风格出第二版，发群里收集反馈意见</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能文档补充大招规则，下个周版本可以提交文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Demo可用代替资源，但需要考虑外包内容以及量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序不建议Demo包含Avatar换装和随机场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战音资源整理xw和sf跟进</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -89,8 +153,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -103,16 +175,24 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="17">
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -441,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:B6"/>
+  <dimension ref="A3:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B6"/>
+      <selection activeCell="A15" sqref="A15:C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
@@ -476,6 +556,119 @@
       </c>
       <c r="B6" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <v>4</v>
+      </c>
+      <c r="B23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <v>5</v>
+      </c>
+      <c r="B24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25">
+        <v>6</v>
+      </c>
+      <c r="B25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26">
+        <v>7</v>
+      </c>
+      <c r="B26" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/项目管理/进度计划/每日站会问题记录.xlsx
+++ b/项目管理/进度计划/每日站会问题记录.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>2015年03月19日</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -98,6 +98,18 @@
   </si>
   <si>
     <t>战音资源整理xw和sf跟进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015年03月26日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本周计划任务都已完成，无延期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下周工作计划预告</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -521,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:B26"/>
+  <dimension ref="A3:B30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:C26"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
@@ -669,6 +681,27 @@
       </c>
       <c r="B26" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/项目管理/进度计划/每日站会问题记录.xlsx
+++ b/项目管理/进度计划/每日站会问题记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="11140" yWindow="140" windowWidth="19300" windowHeight="18380" tabRatio="500"/>
+    <workbookView xWindow="17100" yWindow="0" windowWidth="19300" windowHeight="18380" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="2015年03月" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>2015年03月19日</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -101,15 +101,67 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>本周计划任务都已完成，无延期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下周工作计划预告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015年03月27日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015年03月25日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>2015年03月26日</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>本周计划任务都已完成，无延期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下周工作计划预告</t>
+    <t>外出未开站会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day1提交demo玩家角色美术需求，其他任务延期到Day2（MG-36，MG-53，MG-57）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本核心逻辑文档延期（雪姬有其他工作安排）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美术需求模板完成第一版（场景部分没法完成，其他仍需调整），xw和sf先讨论一下当前版本，后期继续完善</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Demo版本NPC、Boss美术需求今晚出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能大招文档还未开始制作，预计周一提交，本周封文档可能会有风险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unity5.0之后关于打包有新特性，zz需要重新调整逻辑，优先级提前，资源加载功能在其之后做</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙帆通知：角色由原2头身设计变更为2.5头身，更有利于展示身材</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物数据功能基本完成，目前可以直接从excel导出数据，具体数据格式zz需要再与小星确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序未反馈结算文档问题，周一反馈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>照妖镜文档分析已反馈给雪姬，改成xw跟进，测试同学反馈文档给xw</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -165,7 +217,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="17">
+  <cellStyleXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -183,11 +235,42 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="17">
+  <cellStyles count="47">
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
@@ -197,6 +280,21 @@
     <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -205,6 +303,21 @@
     <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -533,10 +646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:B30"/>
+  <dimension ref="A3:B45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
@@ -685,7 +798,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -693,7 +806,7 @@
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -701,7 +814,105 @@
         <v>2</v>
       </c>
       <c r="B30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34">
+        <v>2</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="1" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38">
+        <v>2</v>
+      </c>
+      <c r="B38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39">
+        <v>3</v>
+      </c>
+      <c r="B39" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40">
+        <v>4</v>
+      </c>
+      <c r="B40" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41">
+        <v>5</v>
+      </c>
+      <c r="B41" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42">
+        <v>6</v>
+      </c>
+      <c r="B42" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43">
+        <v>7</v>
+      </c>
+      <c r="B43" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44">
+        <v>8</v>
+      </c>
+      <c r="B44" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45">
+        <v>9</v>
+      </c>
+      <c r="B45" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/项目管理/进度计划/每日站会问题记录.xlsx
+++ b/项目管理/进度计划/每日站会问题记录.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="17100" yWindow="0" windowWidth="19300" windowHeight="18380" tabRatio="500"/>
+    <workbookView xWindow="11240" yWindow="0" windowWidth="19300" windowHeight="18380" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="2015年03月" sheetId="1" r:id="rId1"/>
+    <sheet name="2015年04月" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>2015年03月19日</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -162,6 +163,70 @@
   </si>
   <si>
     <t>照妖镜文档分析已反馈给雪姬，改成xw跟进，测试同学反馈文档给xw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015年03月30日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本逻辑文档已提交给测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>照妖镜文档已完成一版反馈，预计明天上午再修改剩余问题后给程序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Demo关卡设计预计今晚提交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大招文档预计今晚提交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局表现设计文档延期，xw需要优先做unity场景测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本时间模拟提交延期，时间待定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Demo对局场景需求预计今晚提交（xw需要把其他美术需求和需求模板一起提交svn）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI美术风格预计明天出第4版，之后将3、4版发出评价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015年03月31日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局表现文档预计周四可以出小怪相关站位和镜头，boss仍需继续测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Demo关卡设计文档提交测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>照妖镜功能封文档，待程序评估开发时间，scrum安排里程碑进度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序资源加载预计明天做完</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI美术风格第四版完成，明天发给大家评测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影响Demo内容的文档基本已经出完，希望大家继续考虑demo工作预估时间，周四scrum定出demo结点</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -217,8 +282,36 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="47">
+  <cellStyleXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -270,7 +363,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="47">
+  <cellStyles count="75">
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
@@ -295,6 +388,20 @@
     <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="74" builtinId="9" hidden="1"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -318,6 +425,20 @@
     <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="73" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -646,10 +767,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:B45"/>
+  <dimension ref="A3:B63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
@@ -913,6 +1034,128 @@
       </c>
       <c r="B45" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48">
+        <v>1</v>
+      </c>
+      <c r="B48" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49">
+        <v>2</v>
+      </c>
+      <c r="B49" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50">
+        <v>3</v>
+      </c>
+      <c r="B50" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51">
+        <v>4</v>
+      </c>
+      <c r="B51" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52">
+        <v>5</v>
+      </c>
+      <c r="B52" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53">
+        <v>6</v>
+      </c>
+      <c r="B53" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54">
+        <v>7</v>
+      </c>
+      <c r="B54" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55">
+        <v>8</v>
+      </c>
+      <c r="B55" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58">
+        <v>1</v>
+      </c>
+      <c r="B58" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59">
+        <v>2</v>
+      </c>
+      <c r="B59" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60">
+        <v>3</v>
+      </c>
+      <c r="B60" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61">
+        <v>4</v>
+      </c>
+      <c r="B61" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62">
+        <v>5</v>
+      </c>
+      <c r="B62" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63">
+        <v>6</v>
+      </c>
+      <c r="B63" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -925,4 +1168,22 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/项目管理/进度计划/每日站会问题记录.xlsx
+++ b/项目管理/进度计划/每日站会问题记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="11240" yWindow="0" windowWidth="19300" windowHeight="18380" tabRatio="500"/>
+    <workbookView xWindow="6900" yWindow="0" windowWidth="23640" windowHeight="19560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="2015年03月" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>2015年03月19日</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -227,6 +227,34 @@
   </si>
   <si>
     <t>影响Demo内容的文档基本已经出完，希望大家继续考虑demo工作预估时间，周四scrum定出demo结点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015年04月01日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本逻辑封文档延期，明天提交给程序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由于对于场景随机方式不太明确，相关工作暂停。xw和zz会后讨论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美术下周预计研究描边和光照，需要策划支持</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015年04月02日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建角色文档今晚提交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小怪、boss原画明天全部完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -282,8 +310,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="75">
+  <cellStyleXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -363,7 +393,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="75">
+  <cellStyles count="77">
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
@@ -402,6 +432,7 @@
     <cellStyle name="访问过的超链接" xfId="70" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="72" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="76" builtinId="9" hidden="1"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -439,6 +470,7 @@
     <cellStyle name="超链接" xfId="69" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="71" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="75" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -767,10 +799,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:B63"/>
+  <dimension ref="A3:B72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="F73" sqref="F73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
@@ -1156,6 +1188,56 @@
       </c>
       <c r="B63" t="s">
         <v>51</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66">
+        <v>1</v>
+      </c>
+      <c r="B66" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67">
+        <v>2</v>
+      </c>
+      <c r="B67" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68">
+        <v>3</v>
+      </c>
+      <c r="B68" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71">
+        <v>1</v>
+      </c>
+      <c r="B71" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72">
+        <v>2</v>
+      </c>
+      <c r="B72" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/项目管理/进度计划/每日站会问题记录.xlsx
+++ b/项目管理/进度计划/每日站会问题记录.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="25703"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lukehzg/手游项目/项目管理/进度计划/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6900" yWindow="0" windowWidth="23640" windowHeight="19560" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="2015年03月" sheetId="1" r:id="rId1"/>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>2015年03月19日</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -255,6 +260,18 @@
   </si>
   <si>
     <t>小怪、boss原画明天全部完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>村落文档已完成反馈和修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建角色文档已反馈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小怪、boss原画已完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -310,7 +327,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="77">
+  <cellStyleXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -388,51 +405,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="77">
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="76" builtinId="9" hidden="1"/>
+  <cellStyles count="79">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -471,9 +453,54 @@
     <cellStyle name="超链接" xfId="71" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="73" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="78" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -799,20 +826,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:B72"/>
+  <dimension ref="A3:B77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="F73" sqref="F73"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -820,7 +850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -828,7 +858,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -836,12 +866,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -849,7 +879,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
@@ -857,7 +887,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>3</v>
       </c>
@@ -865,7 +895,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>4</v>
       </c>
@@ -873,27 +903,27 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -901,7 +931,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2</v>
       </c>
@@ -909,7 +939,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>3</v>
       </c>
@@ -917,7 +947,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>4</v>
       </c>
@@ -925,7 +955,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>5</v>
       </c>
@@ -933,7 +963,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>6</v>
       </c>
@@ -941,7 +971,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>7</v>
       </c>
@@ -949,12 +979,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1</v>
       </c>
@@ -962,7 +992,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2</v>
       </c>
@@ -970,12 +1000,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1</v>
       </c>
@@ -983,7 +1013,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2</v>
       </c>
@@ -991,12 +1021,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1</v>
       </c>
@@ -1004,7 +1034,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2</v>
       </c>
@@ -1012,7 +1042,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>3</v>
       </c>
@@ -1020,7 +1050,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>4</v>
       </c>
@@ -1028,7 +1058,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>5</v>
       </c>
@@ -1036,7 +1066,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>6</v>
       </c>
@@ -1044,7 +1074,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>7</v>
       </c>
@@ -1052,7 +1082,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>8</v>
       </c>
@@ -1060,7 +1090,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>9</v>
       </c>
@@ -1068,12 +1098,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1</v>
       </c>
@@ -1081,7 +1111,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2</v>
       </c>
@@ -1089,7 +1119,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>3</v>
       </c>
@@ -1097,7 +1127,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>4</v>
       </c>
@@ -1105,7 +1135,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>5</v>
       </c>
@@ -1113,7 +1143,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>6</v>
       </c>
@@ -1121,7 +1151,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>7</v>
       </c>
@@ -1129,7 +1159,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>8</v>
       </c>
@@ -1137,12 +1167,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1</v>
       </c>
@@ -1150,7 +1180,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2</v>
       </c>
@@ -1158,7 +1188,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>3</v>
       </c>
@@ -1166,7 +1196,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>4</v>
       </c>
@@ -1174,7 +1204,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>5</v>
       </c>
@@ -1182,7 +1212,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>6</v>
       </c>
@@ -1190,12 +1220,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>1</v>
       </c>
@@ -1203,7 +1233,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>2</v>
       </c>
@@ -1211,7 +1241,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>3</v>
       </c>
@@ -1219,12 +1249,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>1</v>
       </c>
@@ -1232,23 +1262,47 @@
         <v>57</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>2</v>
       </c>
       <c r="B72" t="s">
         <v>58</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="2">
+        <v>42097</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>1</v>
+      </c>
+      <c r="B75" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>2</v>
+      </c>
+      <c r="B76" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>3</v>
+      </c>
+      <c r="B77" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1258,14 +1312,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/项目管理/进度计划/每日站会问题记录.xlsx
+++ b/项目管理/进度计划/每日站会问题记录.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="25703"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lukehzg/手游项目/项目管理/进度计划/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="19740" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="2015年03月" sheetId="1" r:id="rId1"/>
@@ -25,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <si>
     <t>2015年03月19日</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -272,6 +267,66 @@
   </si>
   <si>
     <t>小怪、boss原画已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015年04月03日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015年04月07日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局表现文档已提交程序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本核心逻辑，demo关卡设计已封文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务系统xw审核中，大招表现文档孔老已提交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端流程自测中，预计明天完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端热更方法选择使用ulua，小郑测试中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外包合同孙帆找外包方尽快确认，美术制作标准xw给出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提醒明天下午开会解答项目、产品问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015年04月08日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序主流程测试还需要2-3天，ulua测试还需要1-2天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景+角色面数限制需要xw，zz，孙帆再计算和讨论一下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要xw确认IM是否需要支持动态表情和超链接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景原画需要策划明天确认需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D角色外包明早反馈修改版本，九尾狐需要返工</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -327,8 +382,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="79">
+  <cellStyleXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -413,8 +476,51 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="79">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="87">
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="86" builtinId="9" hidden="1"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -454,45 +560,10 @@
     <cellStyle name="超链接" xfId="73" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="75" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="77" builtinId="8" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="超链接" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="85" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -826,23 +897,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:B77"/>
+  <dimension ref="A3:B93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="D77" sqref="D77"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A66" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="A88" sqref="A88:B93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -850,7 +921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -858,7 +929,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -866,12 +937,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9">
         <v>1</v>
       </c>
@@ -879,7 +950,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10">
         <v>2</v>
       </c>
@@ -887,7 +958,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11">
         <v>3</v>
       </c>
@@ -895,7 +966,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12">
         <v>4</v>
       </c>
@@ -903,27 +974,27 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="B16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="B17" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20">
         <v>1</v>
       </c>
@@ -931,7 +1002,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21">
         <v>2</v>
       </c>
@@ -939,7 +1010,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22">
         <v>3</v>
       </c>
@@ -947,7 +1018,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23">
         <v>4</v>
       </c>
@@ -955,7 +1026,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="A24">
         <v>5</v>
       </c>
@@ -963,7 +1034,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2">
       <c r="A25">
         <v>6</v>
       </c>
@@ -971,7 +1042,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2">
       <c r="A26">
         <v>7</v>
       </c>
@@ -979,12 +1050,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2">
       <c r="A29">
         <v>1</v>
       </c>
@@ -992,7 +1063,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2">
       <c r="A30">
         <v>2</v>
       </c>
@@ -1000,12 +1071,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2">
       <c r="A33">
         <v>1</v>
       </c>
@@ -1013,7 +1084,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2">
       <c r="A34">
         <v>2</v>
       </c>
@@ -1021,12 +1092,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2">
       <c r="A37">
         <v>1</v>
       </c>
@@ -1034,7 +1105,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2">
       <c r="A38">
         <v>2</v>
       </c>
@@ -1042,7 +1113,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2">
       <c r="A39">
         <v>3</v>
       </c>
@@ -1050,7 +1121,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2">
       <c r="A40">
         <v>4</v>
       </c>
@@ -1058,7 +1129,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2">
       <c r="A41">
         <v>5</v>
       </c>
@@ -1066,7 +1137,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2">
       <c r="A42">
         <v>6</v>
       </c>
@@ -1074,7 +1145,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2">
       <c r="A43">
         <v>7</v>
       </c>
@@ -1082,7 +1153,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2">
       <c r="A44">
         <v>8</v>
       </c>
@@ -1090,7 +1161,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2">
       <c r="A45">
         <v>9</v>
       </c>
@@ -1098,12 +1169,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2">
       <c r="A47" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2">
       <c r="A48">
         <v>1</v>
       </c>
@@ -1111,7 +1182,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2">
       <c r="A49">
         <v>2</v>
       </c>
@@ -1119,7 +1190,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2">
       <c r="A50">
         <v>3</v>
       </c>
@@ -1127,7 +1198,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2">
       <c r="A51">
         <v>4</v>
       </c>
@@ -1135,7 +1206,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2">
       <c r="A52">
         <v>5</v>
       </c>
@@ -1143,7 +1214,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2">
       <c r="A53">
         <v>6</v>
       </c>
@@ -1151,7 +1222,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2">
       <c r="A54">
         <v>7</v>
       </c>
@@ -1159,7 +1230,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2">
       <c r="A55">
         <v>8</v>
       </c>
@@ -1167,12 +1238,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2">
       <c r="A58">
         <v>1</v>
       </c>
@@ -1180,7 +1251,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2">
       <c r="A59">
         <v>2</v>
       </c>
@@ -1188,7 +1259,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2">
       <c r="A60">
         <v>3</v>
       </c>
@@ -1196,7 +1267,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2">
       <c r="A61">
         <v>4</v>
       </c>
@@ -1204,7 +1275,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2">
       <c r="A62">
         <v>5</v>
       </c>
@@ -1212,7 +1283,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2">
       <c r="A63">
         <v>6</v>
       </c>
@@ -1220,12 +1291,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2">
       <c r="A65" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2">
       <c r="A66">
         <v>1</v>
       </c>
@@ -1233,7 +1304,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2">
       <c r="A67">
         <v>2</v>
       </c>
@@ -1241,7 +1312,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2">
       <c r="A68">
         <v>3</v>
       </c>
@@ -1249,12 +1320,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2">
       <c r="A70" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2">
       <c r="A71">
         <v>1</v>
       </c>
@@ -1262,7 +1333,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2">
       <c r="A72">
         <v>2</v>
       </c>
@@ -1270,12 +1341,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="2">
-        <v>42097</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2">
+      <c r="A74" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
       <c r="A75">
         <v>1</v>
       </c>
@@ -1283,7 +1354,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2">
       <c r="A76">
         <v>2</v>
       </c>
@@ -1291,18 +1362,129 @@
         <v>60</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2">
       <c r="A77">
         <v>3</v>
       </c>
       <c r="B77" t="s">
         <v>61</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80">
+        <v>1</v>
+      </c>
+      <c r="B80" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81">
+        <v>2</v>
+      </c>
+      <c r="B81" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82">
+        <v>3</v>
+      </c>
+      <c r="B82" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83">
+        <v>4</v>
+      </c>
+      <c r="B83" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84">
+        <v>5</v>
+      </c>
+      <c r="B84" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85">
+        <v>6</v>
+      </c>
+      <c r="B85" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86">
+        <v>7</v>
+      </c>
+      <c r="B86" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89">
+        <v>1</v>
+      </c>
+      <c r="B89" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90">
+        <v>2</v>
+      </c>
+      <c r="B90" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91">
+        <v>3</v>
+      </c>
+      <c r="B91" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92">
+        <v>4</v>
+      </c>
+      <c r="B92" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93">
+        <v>5</v>
+      </c>
+      <c r="B93" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1310,11 +1492,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showRuler="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>